--- a/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_3_6.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_3_6.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_24</t>
+          <t>model_3_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9915679601591835</v>
+        <v>0.9871737183827846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9747312989288347</v>
+        <v>0.9991490911100659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9864638466130224</v>
+        <v>0.9809597415040151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9788225128173211</v>
+        <v>0.9904013999521859</v>
       </c>
       <c r="F2" t="n">
-        <v>1.016906515278858</v>
+        <v>1.546853381812864</v>
       </c>
       <c r="G2" t="n">
-        <v>5.072730012298071</v>
+        <v>0.1256792613170171</v>
       </c>
       <c r="H2" t="n">
-        <v>1.382765724402812</v>
+        <v>2.949969822688463</v>
       </c>
       <c r="I2" t="n">
-        <v>3.33627960477366</v>
+        <v>1.45475715817014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_23</t>
+          <t>model_3_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9916626478804241</v>
+        <v>0.9887885310499448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9750273132205204</v>
+        <v>0.9988947983168163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.986657861675824</v>
+        <v>0.9805216335289381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9790814403970655</v>
+        <v>0.9900594455530949</v>
       </c>
       <c r="F3" t="n">
-        <v>1.005487147905795</v>
+        <v>1.352106493374172</v>
       </c>
       <c r="G3" t="n">
-        <v>5.013304694895579</v>
+        <v>0.1632383123410571</v>
       </c>
       <c r="H3" t="n">
-        <v>1.36294640268044</v>
+        <v>3.017847331065191</v>
       </c>
       <c r="I3" t="n">
-        <v>3.295488419494558</v>
+        <v>1.506583529450048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_22</t>
+          <t>model_3_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.991765843986979</v>
+        <v>0.9900282292827653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9753536626043174</v>
+        <v>0.9985693198862</v>
       </c>
       <c r="D4" t="n">
-        <v>0.986870713643008</v>
+        <v>0.9799294331660653</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9793665456192417</v>
+        <v>0.9896066378210326</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9930416667306418</v>
+        <v>1.202598517399905</v>
       </c>
       <c r="G4" t="n">
-        <v>4.947789561805826</v>
+        <v>0.211311483532907</v>
       </c>
       <c r="H4" t="n">
-        <v>1.341202824857445</v>
+        <v>3.109598879492348</v>
       </c>
       <c r="I4" t="n">
-        <v>3.250573235282375</v>
+        <v>1.575210754900745</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_21</t>
+          <t>model_3_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9918780330950511</v>
+        <v>0.9909701874698097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9757131518957162</v>
+        <v>0.9981922734474181</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9871037702128204</v>
+        <v>0.9792371821506851</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9796801682924913</v>
+        <v>0.9890790867927607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9795116268950194</v>
+        <v>1.08899807959257</v>
       </c>
       <c r="G5" t="n">
-        <v>4.875621542070976</v>
+        <v>0.2670012506382831</v>
       </c>
       <c r="H5" t="n">
-        <v>1.317395275742836</v>
+        <v>3.216851604318939</v>
       </c>
       <c r="I5" t="n">
-        <v>3.201165441084164</v>
+        <v>1.655166022424715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_20</t>
+          <t>model_3_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.991999621594534</v>
+        <v>0.9916766871822777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9761085941879706</v>
+        <v>0.9977803366350629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9873585136934906</v>
+        <v>0.9784860769157948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9800246972039369</v>
+        <v>0.9885052296327819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9648480176567572</v>
+        <v>1.003794003922323</v>
       </c>
       <c r="G6" t="n">
-        <v>4.796235902959515</v>
+        <v>0.3278443266697126</v>
       </c>
       <c r="H6" t="n">
-        <v>1.291372332332287</v>
+        <v>3.333222806792742</v>
       </c>
       <c r="I6" t="n">
-        <v>3.146888709827255</v>
+        <v>1.74213941511613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_19</t>
+          <t>model_3_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9921309422844826</v>
+        <v>0.9921976411124165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9765432089772187</v>
+        <v>0.9973474871241144</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9876363388978617</v>
+        <v>0.977706846016021</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9804026707249932</v>
+        <v>0.9879070493003157</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9490107033507648</v>
+        <v>0.9409668048436556</v>
       </c>
       <c r="G7" t="n">
-        <v>4.708986325745452</v>
+        <v>0.3917762087325037</v>
       </c>
       <c r="H7" t="n">
-        <v>1.262991509583245</v>
+        <v>3.453951610959127</v>
       </c>
       <c r="I7" t="n">
-        <v>3.087343149083103</v>
+        <v>1.832799210940207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_18</t>
+          <t>model_3_6_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9922722027275724</v>
+        <v>0.9924854766174188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9770202574019159</v>
+        <v>0.9916371950011101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9879384514573956</v>
+        <v>0.9683402156032379</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9808166879155141</v>
+        <v>0.9804549745719783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9319746518565726</v>
+        <v>0.9062537572429366</v>
       </c>
       <c r="G8" t="n">
-        <v>4.613218131944521</v>
+        <v>1.235186477931921</v>
       </c>
       <c r="H8" t="n">
-        <v>1.232129647997304</v>
+        <v>4.905154443305794</v>
       </c>
       <c r="I8" t="n">
-        <v>3.02211930562871</v>
+        <v>2.962230482194864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_17</t>
+          <t>model_3_6_23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.992423411957667</v>
+        <v>0.9925381023381767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9775429613044413</v>
+        <v>0.9917761454701648</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9882662219688434</v>
+        <v>0.968552188284035</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9812693540475572</v>
+        <v>0.9806286436027983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9137387736875465</v>
+        <v>0.8999070796512395</v>
       </c>
       <c r="G9" t="n">
-        <v>4.508284531819296</v>
+        <v>1.214663490668512</v>
       </c>
       <c r="H9" t="n">
-        <v>1.198646736290935</v>
+        <v>4.872312819242889</v>
       </c>
       <c r="I9" t="n">
-        <v>2.95080674757686</v>
+        <v>2.935909324476096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_0</t>
+          <t>model_3_6_6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9924905025566555</v>
+        <v>0.9925731631974184</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9945753114303157</v>
+        <v>0.9969052252555747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.994310318060007</v>
+        <v>0.9769222882941795</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9946041772170743</v>
+        <v>0.9873014435861298</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9056476274746226</v>
+        <v>0.8956787295880035</v>
       </c>
       <c r="G10" t="n">
-        <v>1.089014446659044</v>
+        <v>0.4570982962136246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.581221041492104</v>
+        <v>3.575505717174517</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8500523856471536</v>
+        <v>1.924584392461685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_16</t>
+          <t>model_3_6_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9925843085254759</v>
+        <v>0.9925941702511226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9781146834757535</v>
+        <v>0.9919287866909369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9886206081423116</v>
+        <v>0.9687856695537059</v>
       </c>
       <c r="E11" t="n">
-        <v>0.981763205284059</v>
+        <v>0.9808197011916862</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8943345997059767</v>
+        <v>0.8931452726568324</v>
       </c>
       <c r="G11" t="n">
-        <v>4.393510439991462</v>
+        <v>1.192118379082412</v>
       </c>
       <c r="H11" t="n">
-        <v>1.162444941005029</v>
+        <v>4.836138798819916</v>
       </c>
       <c r="I11" t="n">
-        <v>2.873005930420377</v>
+        <v>2.906952768970825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_15</t>
+          <t>model_3_6_21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9927543882337387</v>
+        <v>0.9926535068087485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.978739056076723</v>
+        <v>0.9920961183193838</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9890023281029462</v>
+        <v>0.9690426585179317</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9823008854380576</v>
+        <v>0.9810296894908711</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8738229362515381</v>
+        <v>0.8859892661408487</v>
       </c>
       <c r="G12" t="n">
-        <v>4.268166694665012</v>
+        <v>1.167403493967257</v>
       </c>
       <c r="H12" t="n">
-        <v>1.123450903127633</v>
+        <v>4.796322654023882</v>
       </c>
       <c r="I12" t="n">
-        <v>2.788300350565549</v>
+        <v>2.875127088158052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_14</t>
+          <t>model_3_6_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9929325775925109</v>
+        <v>0.9927157324130648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9794191750747481</v>
+        <v>0.9922793411164543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9894114221921593</v>
+        <v>0.9693249853149395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9828845501224639</v>
+        <v>0.9812600066975533</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8523332465311962</v>
+        <v>0.8784848397338344</v>
       </c>
       <c r="G13" t="n">
-        <v>4.131631775695503</v>
+        <v>1.140341482905132</v>
       </c>
       <c r="H13" t="n">
-        <v>1.081660501641498</v>
+        <v>4.752580835524689</v>
       </c>
       <c r="I13" t="n">
-        <v>2.696350414965821</v>
+        <v>2.840220372240974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_13</t>
+          <t>model_3_6_19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9931173202149535</v>
+        <v>0.9927803556701876</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9801582673774972</v>
+        <v>0.9924795371259226</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9898476419906319</v>
+        <v>0.9696348955913168</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9835162654055616</v>
+        <v>0.9815123908268281</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8300532312610842</v>
+        <v>0.8706912556844986</v>
       </c>
       <c r="G14" t="n">
-        <v>3.983257876481034</v>
+        <v>1.110772528007351</v>
       </c>
       <c r="H14" t="n">
-        <v>1.037099113454648</v>
+        <v>4.704565417916413</v>
       </c>
       <c r="I14" t="n">
-        <v>2.596830637343375</v>
+        <v>2.801969208858595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_1</t>
+          <t>model_3_6_7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9932363077679717</v>
+        <v>0.9928352302963068</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9934038811424689</v>
+        <v>0.9964626434689338</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9946176611863679</v>
+        <v>0.9761490556330125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9939076859496145</v>
+        <v>0.9867011327084574</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8157032969408414</v>
+        <v>0.8640733594366631</v>
       </c>
       <c r="G15" t="n">
-        <v>1.324180851205909</v>
+        <v>0.5224676356051803</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5498248590898501</v>
+        <v>3.695305194520942</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9597769053923133</v>
+        <v>2.015567092237817</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_12</t>
+          <t>model_3_6_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9933062602992979</v>
+        <v>0.9928465648682309</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9809590455419966</v>
+        <v>0.9926978506122565</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9903096916021317</v>
+        <v>0.9699745289490009</v>
       </c>
       <c r="E16" t="n">
-        <v>0.984197481408087</v>
+        <v>0.9817884130160979</v>
       </c>
       <c r="F16" t="n">
-        <v>0.807267000835896</v>
+        <v>0.8627064066879733</v>
       </c>
       <c r="G16" t="n">
-        <v>3.822500447090057</v>
+        <v>1.078527621387436</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9898991189296125</v>
+        <v>4.651944905639341</v>
       </c>
       <c r="I16" t="n">
-        <v>2.489512567165052</v>
+        <v>2.760135477517178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_11</t>
+          <t>model_3_6_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9934960593304533</v>
+        <v>0.9929132210037427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9818236534692287</v>
+        <v>0.9929353751333538</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9907952670368427</v>
+        <v>0.9703459460325123</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9849289555101516</v>
+        <v>0.9820896453402316</v>
       </c>
       <c r="F17" t="n">
-        <v>0.784377181169574</v>
+        <v>0.8546676568996838</v>
       </c>
       <c r="G17" t="n">
-        <v>3.648929096153227</v>
+        <v>1.043445244520383</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9402958787375766</v>
+        <v>4.594400036265827</v>
       </c>
       <c r="I17" t="n">
-        <v>2.374276887545126</v>
+        <v>2.714480915641197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_10</t>
+          <t>model_3_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9936822207923884</v>
+        <v>0.9929788129196145</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9827537410075338</v>
+        <v>0.9931931498626714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9913005848135849</v>
+        <v>0.9707515892984707</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9857106065507292</v>
+        <v>0.9824177686573233</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7619260534342237</v>
+        <v>0.8467572523168105</v>
       </c>
       <c r="G18" t="n">
-        <v>3.462212614117349</v>
+        <v>1.005371911464329</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8886758888013946</v>
+        <v>4.53155239196486</v>
       </c>
       <c r="I18" t="n">
-        <v>2.251136384508405</v>
+        <v>2.664750773545065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_2</t>
+          <t>model_3_6_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.99373634083941</v>
+        <v>0.9930094431671207</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9921605607545869</v>
+        <v>0.9960269323913573</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9946617776418681</v>
+        <v>0.975398868675515</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9930823822108004</v>
+        <v>0.9861154470549687</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7553991596502305</v>
+        <v>0.8430632353480159</v>
       </c>
       <c r="G19" t="n">
-        <v>1.573779302220387</v>
+        <v>0.5868221711203666</v>
       </c>
       <c r="H19" t="n">
-        <v>0.545318207842334</v>
+        <v>3.811534125260456</v>
       </c>
       <c r="I19" t="n">
-        <v>1.089794409725948</v>
+        <v>2.104333203192116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_9</t>
+          <t>model_3_6_15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.993858596227396</v>
+        <v>0.9930411756044645</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9837496165681809</v>
+        <v>0.9934720617746284</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9918197656601835</v>
+        <v>0.9711931760130853</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9865408720001236</v>
+        <v>0.9827740973523257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7406551234599469</v>
+        <v>0.8392362939566319</v>
       </c>
       <c r="G20" t="n">
-        <v>3.262289086953</v>
+        <v>0.9641766160784856</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8356397374724862</v>
+        <v>4.463135911039046</v>
       </c>
       <c r="I20" t="n">
-        <v>2.120337217380171</v>
+        <v>2.610745843958043</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_8</t>
+          <t>model_3_6_14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9940171151409345</v>
+        <v>0.9930975737668394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9848102974182907</v>
+        <v>0.9937727724494109</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9923448223246382</v>
+        <v>0.9716729554977765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9874166510988306</v>
+        <v>0.9831600690693386</v>
       </c>
       <c r="F21" t="n">
-        <v>0.721537695291277</v>
+        <v>0.8324346587827591</v>
       </c>
       <c r="G21" t="n">
-        <v>3.049355799774188</v>
+        <v>0.9197616429551879</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7820033506629437</v>
+        <v>4.388802098728527</v>
       </c>
       <c r="I21" t="n">
-        <v>1.982367876631724</v>
+        <v>2.552248238538633</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_3</t>
+          <t>model_3_6_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9940460300764157</v>
+        <v>0.9931161402316406</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9908832438456096</v>
+        <v>0.9956035105593105</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9945101210601583</v>
+        <v>0.9746798206475422</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9921743640194552</v>
+        <v>0.9855510738510884</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7180505454633845</v>
+        <v>0.8301955375999277</v>
       </c>
       <c r="G22" t="n">
-        <v>1.830202606336307</v>
+        <v>0.6493615848068932</v>
       </c>
       <c r="H22" t="n">
-        <v>0.560810461592211</v>
+        <v>3.922938599313715</v>
       </c>
       <c r="I22" t="n">
-        <v>1.232842664054532</v>
+        <v>2.189869214082692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_7</t>
+          <t>model_3_6_13</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9941472040146966</v>
+        <v>0.9931443059427271</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9859328207826856</v>
+        <v>0.9940957402418213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.992864579695414</v>
+        <v>0.972192397499169</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9883325362632804</v>
+        <v>0.9835765633669226</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7058489383841178</v>
+        <v>0.8267987444571061</v>
       </c>
       <c r="G23" t="n">
-        <v>2.824007534185287</v>
+        <v>0.8720592930802538</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7289083053596027</v>
+        <v>4.308323242358603</v>
       </c>
       <c r="I23" t="n">
-        <v>1.838080267430938</v>
+        <v>2.489124652002149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_4</t>
+          <t>model_3_6_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9942099128885187</v>
+        <v>0.9931715092718052</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9896017119593857</v>
+        <v>0.9951963505655944</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9942164607867195</v>
+        <v>0.9739973169273848</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9912202129507216</v>
+        <v>0.985012683253062</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6982862295308253</v>
+        <v>0.8235180148710143</v>
       </c>
       <c r="G24" t="n">
-        <v>2.087472073518482</v>
+        <v>0.7094991246227398</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5908088923960932</v>
+        <v>4.028681143657923</v>
       </c>
       <c r="I24" t="n">
-        <v>1.383158644559184</v>
+        <v>2.271467319271875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_6</t>
+          <t>model_3_6_12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9942352000499692</v>
+        <v>0.9931766030283987</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9871118051116032</v>
+        <v>0.994441045782996</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9933640603928634</v>
+        <v>0.972752672842302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9892803470575166</v>
+        <v>0.9840242434460844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6952365903311227</v>
+        <v>0.8229037063092718</v>
       </c>
       <c r="G25" t="n">
-        <v>2.587324644452023</v>
+        <v>0.8210576572331264</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6778845936234266</v>
+        <v>4.221517942158107</v>
       </c>
       <c r="I25" t="n">
-        <v>1.688763127266145</v>
+        <v>2.421274570064497</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_6_5</t>
+          <t>model_3_6_11</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9942635578807374</v>
+        <v>0.9931882859834139</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9883389083323204</v>
+        <v>0.9948082407383708</v>
       </c>
       <c r="D26" t="n">
-        <v>0.993823293528694</v>
+        <v>0.9733543207167733</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9902483163432085</v>
+        <v>0.9845031255369446</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6918166274974894</v>
+        <v>0.821494738456064</v>
       </c>
       <c r="G26" t="n">
-        <v>2.340981814308558</v>
+        <v>0.76682295443855</v>
       </c>
       <c r="H26" t="n">
-        <v>0.630972312003778</v>
+        <v>4.1283026597107</v>
       </c>
       <c r="I26" t="n">
-        <v>1.536270239037995</v>
+        <v>2.3486955328999</v>
       </c>
     </row>
   </sheetData>
